--- a/src/test/resources/data/jdgroupTA348.xlsx
+++ b/src/test/resources/data/jdgroupTA348.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344F5EF-AE2F-4953-ADAC-CEEE84E9CD3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9885EE-DB35-497D-8373-47EB01F78EC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -2145,13 +2145,13 @@
     <t>JBL Tune600 Black</t>
   </si>
   <si>
-    <t>Types_of_Payments</t>
-  </si>
-  <si>
-    <t>Cash Deposits</t>
-  </si>
-  <si>
     <t>CartTotal</t>
+  </si>
+  <si>
+    <t>PaymentOptions</t>
+  </si>
+  <si>
+    <t>Credit Card (Processed By PayU)|Visa Checkout|EFT Pro (Processed By PayU)|Masterpass|Pay with PayGate|Cash Deposits</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2329,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2516,6 +2516,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3431,11 +3432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -8115,15 +8116,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99E3A93-DE6D-4C3C-A63A-888395F95841}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="35" customFormat="1">
@@ -8136,8 +8137,8 @@
       <c r="C1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>668</v>
+      <c r="D1" s="86" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8151,15 +8152,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{19F8F523-1467-419E-82C1-CE3E37C8B9FF}">
-      <formula1>"Credit Card (Processed By PayU),Visa Checkout,EFT Pro (Processed By PayU),Masterpass,Pay with PayGate,Cash Deposits"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18820,7 +18816,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/src/test/resources/data/jdgroupTA348.xlsx
+++ b/src/test/resources/data/jdgroupTA348.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9885EE-DB35-497D-8373-47EB01F78EC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -59,17 +58,20 @@
     <sheet name="Sleepmasters" sheetId="29" r:id="rId49"/>
     <sheet name="HiFiCorp" sheetId="30" r:id="rId50"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$Q$77</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2100-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2100-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,12 +110,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2800-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2157,7 +2159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2521,9 +2523,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -3152,7 +3154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3185,26 +3187,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3237,23 +3222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3429,37 +3397,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="92.26953125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.453125" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="63" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7265625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="29" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.54296875" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.26953125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="63"/>
+    <col min="15" max="15" width="27.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
@@ -3512,7 +3480,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="55">
         <v>1</v>
       </c>
@@ -3549,7 +3517,7 @@
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
     </row>
-    <row r="3" spans="1:17" ht="29">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -3586,7 +3554,7 @@
       <c r="P3" s="55"/>
       <c r="Q3" s="55"/>
     </row>
-    <row r="4" spans="1:17" ht="29">
+    <row r="4" spans="1:17" ht="30">
       <c r="A4" s="55">
         <v>3</v>
       </c>
@@ -3623,7 +3591,7 @@
       <c r="P4" s="55"/>
       <c r="Q4" s="55"/>
     </row>
-    <row r="5" spans="1:17" ht="29">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -3660,7 +3628,7 @@
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
     </row>
-    <row r="6" spans="1:17" ht="29">
+    <row r="6" spans="1:17" ht="30">
       <c r="A6" s="55">
         <v>5</v>
       </c>
@@ -3697,7 +3665,7 @@
       <c r="P6" s="55"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="1:17" ht="29">
+    <row r="7" spans="1:17" ht="30">
       <c r="A7" s="55">
         <v>6</v>
       </c>
@@ -3736,7 +3704,7 @@
       <c r="P7" s="55"/>
       <c r="Q7" s="55"/>
     </row>
-    <row r="8" spans="1:17" ht="29">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="55">
         <v>7</v>
       </c>
@@ -3773,7 +3741,7 @@
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
     </row>
-    <row r="9" spans="1:17" ht="29">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -3810,7 +3778,7 @@
       <c r="P9" s="55"/>
       <c r="Q9" s="55"/>
     </row>
-    <row r="10" spans="1:17" ht="29">
+    <row r="10" spans="1:17" ht="30">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -3849,7 +3817,7 @@
       <c r="P10" s="55"/>
       <c r="Q10" s="55"/>
     </row>
-    <row r="11" spans="1:17" ht="29">
+    <row r="11" spans="1:17" ht="30">
       <c r="A11" s="55">
         <v>10</v>
       </c>
@@ -3888,7 +3856,7 @@
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
     </row>
-    <row r="12" spans="1:17" ht="29">
+    <row r="12" spans="1:17" ht="30">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -3927,7 +3895,7 @@
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
     </row>
-    <row r="13" spans="1:17" ht="29">
+    <row r="13" spans="1:17" ht="30">
       <c r="A13" s="55">
         <v>12</v>
       </c>
@@ -3966,7 +3934,7 @@
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
     </row>
-    <row r="14" spans="1:17" ht="29">
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="55">
         <v>13</v>
       </c>
@@ -4005,7 +3973,7 @@
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
     </row>
-    <row r="15" spans="1:17" ht="29">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15" s="55">
         <v>14</v>
       </c>
@@ -4044,7 +4012,7 @@
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
     </row>
-    <row r="16" spans="1:17" ht="29">
+    <row r="16" spans="1:17" ht="30">
       <c r="A16" s="55">
         <v>15</v>
       </c>
@@ -4085,7 +4053,7 @@
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
     </row>
-    <row r="17" spans="1:17" ht="29">
+    <row r="17" spans="1:17" ht="30">
       <c r="A17" s="55">
         <v>16</v>
       </c>
@@ -4126,7 +4094,7 @@
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
     </row>
-    <row r="18" spans="1:17" ht="29">
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="55">
         <v>17</v>
       </c>
@@ -4167,7 +4135,7 @@
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
     </row>
-    <row r="19" spans="1:17" ht="29">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="55">
         <v>18</v>
       </c>
@@ -4208,7 +4176,7 @@
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
     </row>
-    <row r="20" spans="1:17" ht="29">
+    <row r="20" spans="1:17" ht="30">
       <c r="A20" s="55">
         <v>19</v>
       </c>
@@ -4249,7 +4217,7 @@
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
     </row>
-    <row r="21" spans="1:17" ht="29">
+    <row r="21" spans="1:17" ht="30">
       <c r="A21" s="55">
         <v>20</v>
       </c>
@@ -4666,7 +4634,7 @@
       <c r="O31" s="55"/>
       <c r="P31" s="55"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="30">
       <c r="A32" s="55">
         <v>31</v>
       </c>
@@ -6090,7 +6058,7 @@
       <c r="J77" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K77" s="63" t="s">
+      <c r="K77" s="61" t="s">
         <v>665</v>
       </c>
     </row>
@@ -6126,229 +6094,230 @@
     <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D71">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K17:K21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="I2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="I3:I15" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J16:J21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K17:K21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="I3:I15" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16:J21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="K77" location="'validatePaymentOption++'!A1" display="validatePaymentOption"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6356,21 +6325,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="42"/>
+    <col min="8" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6542,17 +6511,17 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -6560,20 +6529,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7265625" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="68" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="68" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="68"/>
+    <col min="5" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6734,7 +6703,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="55">
         <v>7</v>
       </c>
@@ -6748,7 +6717,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="55">
         <v>8</v>
       </c>
@@ -7006,7 +6975,7 @@
     <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7015,21 +6984,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="4" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7109,21 +7078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="4" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7172,29 +7141,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="42"/>
+    <col min="13" max="13" width="17.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7328,10 +7297,10 @@
     <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7340,25 +7309,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="4" width="22.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7456,13 +7425,13 @@
     <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7471,28 +7440,28 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="42"/>
+    <col min="10" max="10" width="11.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7608,7 +7577,7 @@
     <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7616,7 +7585,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -7629,24 +7598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="42"/>
+    <col min="8" max="8" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7758,7 +7727,7 @@
     <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7768,38 +7737,38 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="42"/>
-    <col min="15" max="15" width="23.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="42"/>
+    <col min="14" max="14" width="9.140625" style="42"/>
+    <col min="15" max="15" width="23.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -8014,25 +7983,25 @@
     <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-1000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-1000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-1000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-1000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-1000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-1000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8042,22 +8011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="4" width="20.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8113,18 +8082,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99E3A93-DE6D-4C3C-A63A-888395F95841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="104.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="35" customFormat="1">
@@ -8161,14 +8130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="41" bestFit="1" customWidth="1"/>
@@ -8218,25 +8187,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="35"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
     <col min="2" max="2" width="30" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="35"/>
-    <col min="4" max="4" width="20.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="35"/>
+    <col min="3" max="3" width="9.140625" style="35"/>
+    <col min="4" max="4" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8337,7 +8306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8347,38 +8316,38 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="12"/>
-    <col min="2" max="2" width="44.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="12"/>
-    <col min="10" max="10" width="19.26953125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="12"/>
-    <col min="12" max="12" width="18.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="32.453125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="28.81640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="28.7265625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="20.81640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="24.81640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="33.1796875" style="12" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="12"/>
+    <col min="2" max="2" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="12"/>
+    <col min="10" max="10" width="19.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="12"/>
+    <col min="12" max="12" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="33.140625" style="12" hidden="1" customWidth="1"/>
     <col min="23" max="27" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="12" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="12"/>
+    <col min="28" max="28" width="13.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -8766,59 +8735,59 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-1400-000002000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1400-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="29.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1796875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="26.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.26953125" style="13" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="29.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="13" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="24" style="13" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.1796875" style="13" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="32.453125" style="13" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="21.54296875" style="13" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="24.81640625" style="13" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="29.26953125" style="13" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="13"/>
+    <col min="24" max="24" width="32.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="32.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="24.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10166,7 +10135,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O1048576 L2:L1048576 J2:J1048576 H2:H1048576 F2:F1048576 D2:D1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O1048576 L2:L1048576 J2:J1048576 H2:H1048576 F2:F1048576 D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10175,7 +10144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10185,14 +10154,14 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10628,7 +10597,7 @@
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10637,18 +10606,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10802,26 +10771,26 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="37"/>
+    <col min="11" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="50" customFormat="1">
@@ -10886,7 +10855,7 @@
       </c>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" s="50" customFormat="1">
+    <row r="3" spans="1:10" s="50" customFormat="1" ht="30">
       <c r="A3" s="51">
         <v>27</v>
       </c>
@@ -10916,7 +10885,7 @@
       </c>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" s="50" customFormat="1">
+    <row r="4" spans="1:10" s="50" customFormat="1" ht="30">
       <c r="A4" s="51">
         <v>28</v>
       </c>
@@ -11391,17 +11360,17 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11432,7 +11401,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="30">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -11446,7 +11415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="30">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -11619,7 +11588,7 @@
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11628,33 +11597,33 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="30">
       <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
@@ -11750,7 +11719,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="30">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -11796,7 +11765,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1">
+    <row r="4" spans="1:16" s="5" customFormat="1" ht="30">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -12228,14 +12197,14 @@
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1A00-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1A00-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1A00-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1A00-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1A00-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1A00-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1A00-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -12243,27 +12212,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12474,36 +12443,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1B00-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1B00-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1B00-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1B00-000005000000}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-1B00-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-1B00-000007000000}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-1B00-000008000000}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{00000000-0004-0000-1B00-000009000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="J5" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="J6" r:id="rId9"/>
+    <hyperlink ref="H6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="42"/>
-    <col min="4" max="4" width="23.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.1796875" style="42"/>
-    <col min="9" max="9" width="29.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="23.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="42"/>
+    <col min="9" max="9" width="29.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12584,24 +12553,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12618,7 +12587,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="19">
         <v>26</v>
       </c>
@@ -12632,7 +12601,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="43.5">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -12646,7 +12615,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -12660,7 +12629,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="19">
         <v>29</v>
       </c>
@@ -12674,7 +12643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="19">
         <v>30</v>
       </c>
@@ -12688,7 +12657,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="19">
         <v>31</v>
       </c>
@@ -12798,19 +12767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12851,7 +12820,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -12869,7 +12838,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -13058,21 +13027,21 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="44"/>
+    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13107,7 +13076,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -13122,7 +13091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -13152,7 +13121,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="19">
         <v>30</v>
       </c>
@@ -13347,7 +13316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13357,14 +13326,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13741,7 +13710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="19">
         <v>27</v>
       </c>
@@ -13758,7 +13727,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="19">
         <v>28</v>
       </c>
@@ -14002,7 +13971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14012,13 +13981,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="27" style="12" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="12"/>
+    <col min="4" max="4" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14035,7 +14004,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="19">
         <v>26</v>
       </c>
@@ -14047,7 +14016,7 @@
       </c>
       <c r="D2" s="19"/>
     </row>
-    <row r="3" spans="1:4" ht="58">
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -14059,7 +14028,7 @@
       </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:4" ht="58">
+    <row r="4" spans="1:4" ht="60">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -14071,7 +14040,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="19">
         <v>29</v>
       </c>
@@ -14083,7 +14052,7 @@
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="19">
         <v>30</v>
       </c>
@@ -14095,7 +14064,7 @@
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="19">
         <v>31</v>
       </c>
@@ -14167,26 +14136,26 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
@@ -14257,7 +14226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="30">
       <c r="A3" s="19">
         <v>27</v>
       </c>
@@ -14290,7 +14259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="43.5">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="45">
       <c r="A4" s="19">
         <v>28</v>
       </c>
@@ -14484,7 +14453,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="43.5">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -14515,7 +14484,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="43.5">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A11" s="19">
         <v>5</v>
       </c>
@@ -14546,7 +14515,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.5">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="19">
         <v>6</v>
       </c>
@@ -15318,7 +15287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="35" customFormat="1" ht="29">
+    <row r="37" spans="1:10" s="35" customFormat="1" ht="30">
       <c r="A37" s="35">
         <v>61</v>
       </c>
@@ -15554,25 +15523,25 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30 G40" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30 G40">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D42:D1048576" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D42:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37 H40:H43" xr:uid="{00000000-0002-0000-2100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37 H40:H43">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38" xr:uid="{00000000-0002-0000-2100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
       <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39" xr:uid="{00000000-0002-0000-2100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
       <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code,Add_To_Compare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:G43" xr:uid="{00000000-0002-0000-2100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41:G43">
       <formula1>"Add_To_Cart,Add_To_Wishlist,Validate_Out_Of_Stock"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15583,21 +15552,21 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="37"/>
-    <col min="2" max="2" width="32.7265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="37"/>
+    <col min="2" max="2" width="32.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="37"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15686,20 +15655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15769,21 +15738,21 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16104,19 +16073,19 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-2400-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-2400-000003000000}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-2400-000004000000}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-2400-000005000000}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-2400-000006000000}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-2400-000007000000}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{00000000-0004-0000-2400-000008000000}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-2400-000009000000}"/>
-    <hyperlink ref="E15" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000A000000}"/>
-    <hyperlink ref="E16" r:id="rId12" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000B000000}"/>
-    <hyperlink ref="E17" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000C000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E16" r:id="rId12" display="Password@123"/>
+    <hyperlink ref="E17" r:id="rId13" display="Password@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
@@ -16124,21 +16093,21 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16228,7 +16197,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2500-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16236,17 +16205,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
     <col min="2" max="2" width="10" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16289,25 +16258,25 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16410,7 +16379,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16418,19 +16387,19 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -16464,29 +16433,29 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -16524,7 +16493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="19">
         <v>6</v>
       </c>
@@ -16558,7 +16527,7 @@
       </c>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="19">
         <v>7</v>
       </c>
@@ -16592,7 +16561,7 @@
       </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="19">
         <v>8</v>
       </c>
@@ -16754,17 +16723,17 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2800-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2800-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2800-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -16773,7 +16742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16783,27 +16752,27 @@
       <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -17042,7 +17011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -17101,7 +17070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -17160,7 +17129,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="29">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="19">
         <v>21</v>
       </c>
@@ -17219,7 +17188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="29">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="19">
         <v>22</v>
       </c>
@@ -17278,7 +17247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="29">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="19">
         <v>23</v>
       </c>
@@ -17337,7 +17306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="29">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="19">
         <v>24</v>
       </c>
@@ -17396,7 +17365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="29">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="19">
         <v>25</v>
       </c>
@@ -17575,16 +17544,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13 O2:S13" xr:uid="{00000000-0002-0000-2900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13 O2:S13">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13" xr:uid="{00000000-0002-0000-2900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13" xr:uid="{00000000-0002-0000-2900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17594,22 +17563,22 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -17699,19 +17668,19 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -17903,21 +17872,21 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18007,21 +17976,21 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18111,16 +18080,16 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18484,21 +18453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18588,23 +18557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="42"/>
-    <col min="2" max="2" width="20.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="42"/>
-    <col min="4" max="4" width="13.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18678,29 +18647,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18790,19 +18759,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="42"/>
-    <col min="2" max="2" width="47.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="42"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18869,18 +18838,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19003,7 +18972,7 @@
     <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19012,18 +18981,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="42"/>
-    <col min="3" max="3" width="20.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="42"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19062,7 +19031,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"All_product,Specific_product"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19071,17 +19040,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.26953125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="42"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
